--- a/기업매칭사업 V4.xlsx
+++ b/기업매칭사업 V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43FBB4-4B9A-4F90-93EA-0A93F08FCB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB33D7-4715-4CD6-BFAB-96278B8CDDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38415" yWindow="660" windowWidth="33225" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기업 데이터베이스" sheetId="8" r:id="rId1"/>
@@ -1186,10 +1186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>컨소시엄 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수출실적 제한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1225,19 +1221,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고용인 수 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10인 이상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>초기창업패키지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특허권 보유 여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1291,14 +1279,6 @@
   </si>
   <si>
     <t>200~1,000</t>
-  </si>
-  <si>
-    <t>투자지원 이력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소기업 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자율제조로봇실증사업</t>
@@ -2374,6 +2354,26 @@
   </si>
   <si>
     <t>J582, J631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허권보유여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용인수제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨소시엄구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자지원이력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소기업여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2914,10 +2914,10 @@
         <v>253</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>254</v>
@@ -2926,13 +2926,13 @@
         <v>255</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -2976,7 +2976,7 @@
         <v>256</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>158</v>
@@ -3032,7 +3032,7 @@
         <v>259</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>161</v>
@@ -3088,7 +3088,7 @@
         <v>260</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>158</v>
@@ -3144,7 +3144,7 @@
         <v>261</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>158</v>
@@ -3200,7 +3200,7 @@
         <v>262</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>158</v>
@@ -3256,7 +3256,7 @@
         <v>197</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>158</v>
@@ -3312,7 +3312,7 @@
         <v>186</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>161</v>
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>158</v>
@@ -3424,7 +3424,7 @@
         <v>200</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>161</v>
@@ -3480,7 +3480,7 @@
         <v>186</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>158</v>
@@ -3536,7 +3536,7 @@
         <v>193</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>161</v>
@@ -3592,7 +3592,7 @@
         <v>197</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>161</v>
@@ -3704,7 +3704,7 @@
         <v>197</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>158</v>
@@ -3719,10 +3719,10 @@
         <v>158</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="66" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>193</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>161</v>
@@ -3781,10 +3781,10 @@
         <v>161</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
         <v>186</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>158</v>
@@ -3843,10 +3843,10 @@
         <v>158</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -3890,7 +3890,7 @@
         <v>200</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>161</v>
@@ -3946,7 +3946,7 @@
         <v>197</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>158</v>
@@ -3961,10 +3961,10 @@
         <v>158</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>193</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>161</v>
@@ -4064,7 +4064,7 @@
         <v>186</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>158</v>
@@ -4120,7 +4120,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>161</v>
@@ -4176,7 +4176,7 @@
         <v>197</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>158</v>
@@ -4232,7 +4232,7 @@
         <v>211</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>161</v>
@@ -4288,7 +4288,7 @@
         <v>212</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>158</v>
@@ -4344,7 +4344,7 @@
         <v>200</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>161</v>
@@ -4400,7 +4400,7 @@
         <v>214</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>158</v>
@@ -4417,13 +4417,13 @@
     </row>
     <row r="28" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>189</v>
@@ -4438,10 +4438,10 @@
         <v>185</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>163</v>
@@ -4456,7 +4456,7 @@
         <v>193</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>161</v>
@@ -4471,10 +4471,10 @@
         <v>161</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
         <v>270</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>161</v>
@@ -4574,7 +4574,7 @@
         <v>271</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>158</v>
@@ -4630,7 +4630,7 @@
         <v>272</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>158</v>
@@ -4686,7 +4686,7 @@
         <v>273</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>161</v>
@@ -4742,7 +4742,7 @@
         <v>193</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>158</v>
@@ -4798,7 +4798,7 @@
         <v>275</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>161</v>
@@ -4854,7 +4854,7 @@
         <v>197</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>158</v>
@@ -4910,7 +4910,7 @@
         <v>224</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>161</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="37" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>195</v>
@@ -4945,10 +4945,10 @@
         <v>4</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>165</v>
@@ -4963,10 +4963,10 @@
         <v>4</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>161</v>
@@ -4981,10 +4981,10 @@
         <v>161</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -5028,7 +5028,7 @@
         <v>276</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>158</v>
@@ -5085,7 +5085,7 @@
         <v>278</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>158</v>
@@ -5141,7 +5141,7 @@
         <v>280</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>158</v>
@@ -5197,7 +5197,7 @@
         <v>281</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>158</v>
@@ -5253,7 +5253,7 @@
         <v>283</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>158</v>
@@ -5309,7 +5309,7 @@
         <v>284</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>158</v>
@@ -5324,10 +5324,10 @@
         <v>161</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -5371,7 +5371,7 @@
         <v>285</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>161</v>
@@ -5427,7 +5427,7 @@
         <v>197</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>158</v>
@@ -5483,7 +5483,7 @@
         <v>281</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>158</v>
@@ -5539,7 +5539,7 @@
         <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>161</v>
@@ -5595,7 +5595,7 @@
         <v>186</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>158</v>
@@ -5651,7 +5651,7 @@
         <v>193</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>161</v>
@@ -5707,7 +5707,7 @@
         <v>235</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>158</v>
@@ -5763,7 +5763,7 @@
         <v>288</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>158</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="52" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>195</v>
@@ -5801,10 +5801,10 @@
         <v>185</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>163</v>
@@ -5816,10 +5816,10 @@
         <v>25</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>161</v>
@@ -5834,10 +5834,10 @@
         <v>161</v>
       </c>
       <c r="S52" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>283</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>158</v>
@@ -5937,7 +5937,7 @@
         <v>280</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>158</v>
@@ -5993,7 +5993,7 @@
         <v>212</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>158</v>
@@ -6049,7 +6049,7 @@
         <v>280</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>158</v>
@@ -6105,7 +6105,7 @@
         <v>186</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>161</v>
@@ -6161,7 +6161,7 @@
         <v>290</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>158</v>
@@ -6217,7 +6217,7 @@
         <v>292</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>158</v>
@@ -6273,7 +6273,7 @@
         <v>280</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>158</v>
@@ -6329,7 +6329,7 @@
         <v>294</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>161</v>
@@ -6385,7 +6385,7 @@
         <v>295</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>158</v>
@@ -6441,7 +6441,7 @@
         <v>296</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>161</v>
@@ -6497,7 +6497,7 @@
         <v>297</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>158</v>
@@ -6553,7 +6553,7 @@
         <v>298</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>161</v>
@@ -6609,7 +6609,7 @@
         <v>299</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>158</v>
@@ -6626,16 +6626,16 @@
     </row>
     <row r="67" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E67" s="3">
         <v>480</v>
@@ -6647,10 +6647,10 @@
         <v>219</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>163</v>
@@ -6665,7 +6665,7 @@
         <v>307</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>161</v>
@@ -6680,10 +6680,10 @@
         <v>161</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -6727,7 +6727,7 @@
         <v>300</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>158</v>
@@ -6783,7 +6783,7 @@
         <v>301</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>161</v>
@@ -6839,7 +6839,7 @@
         <v>227</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>158</v>
@@ -6895,7 +6895,7 @@
         <v>302</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>158</v>
@@ -6951,7 +6951,7 @@
         <v>197</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>161</v>
@@ -7007,7 +7007,7 @@
         <v>234</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>161</v>
@@ -7063,7 +7063,7 @@
         <v>273</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>158</v>
@@ -7119,7 +7119,7 @@
         <v>235</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>161</v>
@@ -7175,7 +7175,7 @@
         <v>303</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>158</v>
@@ -7231,7 +7231,7 @@
         <v>306</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>161</v>
@@ -7287,7 +7287,7 @@
         <v>307</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>158</v>
@@ -7343,7 +7343,7 @@
         <v>308</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>161</v>
@@ -7399,7 +7399,7 @@
         <v>309</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>161</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="81" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>194</v>
@@ -7437,7 +7437,7 @@
         <v>219</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>165</v>
@@ -7455,7 +7455,7 @@
         <v>290</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>161</v>
@@ -7470,10 +7470,10 @@
         <v>161</v>
       </c>
       <c r="S81" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>310</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>158</v>
@@ -7573,7 +7573,7 @@
         <v>229</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>158</v>
@@ -7629,7 +7629,7 @@
         <v>312</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>161</v>
@@ -7685,7 +7685,7 @@
         <v>303</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>158</v>
@@ -7702,10 +7702,10 @@
     </row>
     <row r="86" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>167</v>
@@ -7723,10 +7723,10 @@
         <v>219</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>163</v>
@@ -7741,7 +7741,7 @@
         <v>212</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>161</v>
@@ -7756,10 +7756,10 @@
         <v>161</v>
       </c>
       <c r="S86" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -7803,7 +7803,7 @@
         <v>212</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>161</v>
@@ -7859,7 +7859,7 @@
         <v>313</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>158</v>
@@ -7915,7 +7915,7 @@
         <v>314</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>161</v>
@@ -7971,7 +7971,7 @@
         <v>292</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>158</v>
@@ -8027,7 +8027,7 @@
         <v>315</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>161</v>
@@ -8083,7 +8083,7 @@
         <v>230</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>158</v>
@@ -8139,7 +8139,7 @@
         <v>186</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>161</v>
@@ -8195,7 +8195,7 @@
         <v>302</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>158</v>
@@ -8210,10 +8210,10 @@
         <v>161</v>
       </c>
       <c r="S94" s="13" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -8257,7 +8257,7 @@
         <v>301</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>158</v>
@@ -8313,7 +8313,7 @@
         <v>316</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>158</v>
@@ -8369,7 +8369,7 @@
         <v>272</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>161</v>
@@ -8425,7 +8425,7 @@
         <v>317</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>158</v>
@@ -8481,7 +8481,7 @@
         <v>230</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>158</v>
@@ -8537,7 +8537,7 @@
         <v>318</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>158</v>
@@ -8593,7 +8593,7 @@
         <v>319</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>158</v>
@@ -8649,7 +8649,7 @@
         <v>236</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>158</v>
@@ -8666,10 +8666,10 @@
     </row>
     <row r="103" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>167</v>
@@ -8687,7 +8687,7 @@
         <v>216</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>160</v>
@@ -8702,28 +8702,28 @@
         <v>3</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="S103" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
@@ -8767,7 +8767,7 @@
         <v>235</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>158</v>
@@ -8782,10 +8782,10 @@
         <v>161</v>
       </c>
       <c r="S104" s="13" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>299</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>158</v>
@@ -8885,7 +8885,7 @@
         <v>320</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>161</v>
@@ -8941,7 +8941,7 @@
         <v>316</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>158</v>
@@ -8997,7 +8997,7 @@
         <v>321</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>161</v>
@@ -9053,7 +9053,7 @@
         <v>221</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>158</v>
@@ -9109,7 +9109,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>158</v>
@@ -9165,7 +9165,7 @@
         <v>220</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>161</v>
@@ -9221,7 +9221,7 @@
         <v>221</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>158</v>
@@ -9277,7 +9277,7 @@
         <v>222</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>161</v>
@@ -9333,7 +9333,7 @@
         <v>223</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>161</v>
@@ -9389,7 +9389,7 @@
         <v>200</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>158</v>
@@ -9445,7 +9445,7 @@
         <v>224</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>158</v>
@@ -9501,7 +9501,7 @@
         <v>225</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>161</v>
@@ -9557,7 +9557,7 @@
         <v>226</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>158</v>
@@ -9613,7 +9613,7 @@
         <v>227</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>158</v>
@@ -9669,7 +9669,7 @@
         <v>228</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>161</v>
@@ -9686,10 +9686,10 @@
     </row>
     <row r="121" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>167</v>
@@ -9707,7 +9707,7 @@
         <v>216</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>164</v>
@@ -9725,7 +9725,7 @@
         <v>228</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>161</v>
@@ -9740,10 +9740,10 @@
         <v>161</v>
       </c>
       <c r="S121" s="13" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -9787,7 +9787,7 @@
         <v>229</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>158</v>
@@ -9843,7 +9843,7 @@
         <v>186</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>158</v>
@@ -9899,7 +9899,7 @@
         <v>230</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>161</v>
@@ -9955,7 +9955,7 @@
         <v>193</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>158</v>
@@ -10011,7 +10011,7 @@
         <v>231</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>158</v>
@@ -10067,7 +10067,7 @@
         <v>232</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>158</v>
@@ -10123,7 +10123,7 @@
         <v>230</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>158</v>
@@ -10179,7 +10179,7 @@
         <v>233</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>158</v>
@@ -10235,7 +10235,7 @@
         <v>234</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>161</v>
@@ -10252,10 +10252,10 @@
     </row>
     <row r="131" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>167</v>
@@ -10273,7 +10273,7 @@
         <v>219</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>165</v>
@@ -10288,10 +10288,10 @@
         <v>3</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>161</v>
@@ -10306,10 +10306,10 @@
         <v>161</v>
       </c>
       <c r="S131" s="13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -10353,7 +10353,7 @@
         <v>193</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>158</v>
@@ -10409,7 +10409,7 @@
         <v>235</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>158</v>
@@ -10465,7 +10465,7 @@
         <v>236</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>161</v>
@@ -10521,7 +10521,7 @@
         <v>230</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>158</v>
@@ -10577,7 +10577,7 @@
         <v>211</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>158</v>
@@ -10633,7 +10633,7 @@
         <v>322</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>161</v>
@@ -10689,7 +10689,7 @@
         <v>197</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>158</v>
@@ -10745,7 +10745,7 @@
         <v>302</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>158</v>
@@ -10801,7 +10801,7 @@
         <v>323</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>158</v>
@@ -10857,7 +10857,7 @@
         <v>186</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O141" s="3" t="s">
         <v>158</v>
@@ -10913,7 +10913,7 @@
         <v>324</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>161</v>
@@ -10969,7 +10969,7 @@
         <v>235</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>158</v>
@@ -11025,7 +11025,7 @@
         <v>325</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>161</v>
@@ -11081,7 +11081,7 @@
         <v>326</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>158</v>
@@ -11137,7 +11137,7 @@
         <v>230</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>161</v>
@@ -11193,7 +11193,7 @@
         <v>322</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>161</v>
@@ -11249,7 +11249,7 @@
         <v>276</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>158</v>
@@ -11305,7 +11305,7 @@
         <v>193</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>158</v>
@@ -11361,7 +11361,7 @@
         <v>328</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>161</v>
@@ -11417,7 +11417,7 @@
         <v>330</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>158</v>
@@ -11473,7 +11473,7 @@
         <v>273</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>158</v>
@@ -11529,7 +11529,7 @@
         <v>271</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>161</v>
@@ -11585,7 +11585,7 @@
         <v>278</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>158</v>
@@ -11641,7 +11641,7 @@
         <v>288</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O155" s="3" t="s">
         <v>158</v>
@@ -11697,7 +11697,7 @@
         <v>278</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>158</v>
@@ -11753,7 +11753,7 @@
         <v>193</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>158</v>
@@ -11809,7 +11809,7 @@
         <v>288</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>161</v>
@@ -11865,7 +11865,7 @@
         <v>197</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>158</v>
@@ -11921,7 +11921,7 @@
         <v>325</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>161</v>
@@ -11977,7 +11977,7 @@
         <v>235</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>158</v>
@@ -12033,7 +12033,7 @@
         <v>193</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>158</v>
@@ -12089,7 +12089,7 @@
         <v>273</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>158</v>
@@ -12145,7 +12145,7 @@
         <v>224</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O164" s="3" t="s">
         <v>161</v>
@@ -12172,8 +12172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12209,23 +12209,23 @@
       <c r="C1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>653</v>
+      <c r="D1" s="20" t="s">
+        <v>648</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>239</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>338</v>
@@ -12237,28 +12237,28 @@
         <v>341</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>348</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>352</v>
+        <v>670</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>361</v>
+        <v>669</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>364</v>
+        <v>668</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>379</v>
+        <v>671</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>380</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -12302,7 +12302,7 @@
         <v>332</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>332</v>
@@ -12314,7 +12314,7 @@
         <v>332</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>332</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="3" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B3" s="2">
         <v>120</v>
@@ -12364,7 +12364,7 @@
         <v>332</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>332</v>
@@ -12376,7 +12376,7 @@
         <v>332</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>332</v>
@@ -12426,7 +12426,7 @@
         <v>332</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>332</v>
@@ -12438,7 +12438,7 @@
         <v>332</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>332</v>
@@ -12488,7 +12488,7 @@
         <v>344</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>332</v>
@@ -12500,7 +12500,7 @@
         <v>332</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>332</v>
@@ -12550,7 +12550,7 @@
         <v>332</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>332</v>
@@ -12562,7 +12562,7 @@
         <v>332</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>332</v>
@@ -12612,7 +12612,7 @@
         <v>332</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>332</v>
@@ -12624,7 +12624,7 @@
         <v>332</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>332</v>
@@ -12674,7 +12674,7 @@
         <v>332</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>332</v>
@@ -12686,7 +12686,7 @@
         <v>332</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>332</v>
@@ -12736,10 +12736,10 @@
         <v>332</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>332</v>
@@ -12748,7 +12748,7 @@
         <v>332</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>332</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="3">
         <v>200</v>
@@ -12798,10 +12798,10 @@
         <v>332</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>332</v>
@@ -12810,7 +12810,7 @@
         <v>332</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>332</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="3">
         <v>600</v>
@@ -12860,10 +12860,10 @@
         <v>332</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>332</v>
@@ -12872,7 +12872,7 @@
         <v>332</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>332</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="12" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="2">
         <v>300</v>
@@ -12922,7 +12922,7 @@
         <v>332</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>332</v>
@@ -12934,7 +12934,7 @@
         <v>332</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>332</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="13" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="2">
         <v>300</v>
@@ -12969,7 +12969,7 @@
         <v>168</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>339</v>
@@ -12984,19 +12984,19 @@
         <v>332</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>332</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>332</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>332</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B14" s="3">
         <v>100</v>
@@ -13046,7 +13046,7 @@
         <v>332</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>332</v>
@@ -13058,7 +13058,7 @@
         <v>332</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>332</v>
@@ -13108,7 +13108,7 @@
         <v>332</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>332</v>
@@ -13120,7 +13120,7 @@
         <v>331</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>332</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B16" s="3">
         <v>100</v>
@@ -13170,7 +13170,7 @@
         <v>344</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>332</v>
@@ -13182,7 +13182,7 @@
         <v>332</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>332</v>
@@ -13193,19 +13193,19 @@
     </row>
     <row r="17" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -13232,10 +13232,10 @@
         <v>332</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>332</v>
@@ -13244,7 +13244,7 @@
         <v>332</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>332</v>
@@ -13255,13 +13255,13 @@
     </row>
     <row r="18" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B18" s="3">
         <v>830</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -13294,10 +13294,10 @@
         <v>332</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>332</v>
@@ -13306,7 +13306,7 @@
         <v>332</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>332</v>
@@ -13317,19 +13317,19 @@
     </row>
     <row r="19" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B19" s="3">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -13356,7 +13356,7 @@
         <v>332</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>332</v>
@@ -13368,7 +13368,7 @@
         <v>332</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>332</v>
@@ -13379,13 +13379,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B20" s="3">
         <v>500</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -13418,10 +13418,10 @@
         <v>332</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>332</v>
@@ -13430,7 +13430,7 @@
         <v>332</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>332</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B21" s="3">
         <v>318.2</v>
@@ -13480,7 +13480,7 @@
         <v>335</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>336</v>
@@ -13492,7 +13492,7 @@
         <v>332</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>332</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B22" s="3">
         <v>14</v>
@@ -13524,7 +13524,7 @@
         <v>350</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>336</v>
@@ -13542,7 +13542,7 @@
         <v>335</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>332</v>
@@ -13554,7 +13554,7 @@
         <v>332</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>332</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B23" s="3">
         <v>100</v>
@@ -13586,7 +13586,7 @@
         <v>350</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>336</v>
@@ -13604,7 +13604,7 @@
         <v>335</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>336</v>
@@ -13616,7 +13616,7 @@
         <v>332</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>332</v>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B24" s="3">
         <v>130</v>
@@ -13648,7 +13648,7 @@
         <v>350</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>336</v>
@@ -13666,7 +13666,7 @@
         <v>335</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>336</v>
@@ -13678,7 +13678,7 @@
         <v>332</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>332</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B25" s="3">
         <v>20</v>
@@ -13710,7 +13710,7 @@
         <v>350</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>336</v>
@@ -13728,7 +13728,7 @@
         <v>335</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>336</v>
@@ -13740,7 +13740,7 @@
         <v>332</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>332</v>
@@ -13751,13 +13751,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B26" s="3">
         <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>335</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>336</v>
@@ -13802,7 +13802,7 @@
         <v>332</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>332</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B27" s="3">
         <v>32</v>
@@ -13834,7 +13834,7 @@
         <v>350</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>336</v>
@@ -13852,7 +13852,7 @@
         <v>335</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>336</v>
@@ -13864,7 +13864,7 @@
         <v>335</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>332</v>
@@ -13875,13 +13875,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -13914,7 +13914,7 @@
         <v>335</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>336</v>
@@ -13926,7 +13926,7 @@
         <v>336</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>332</v>
@@ -13940,7 +13940,7 @@
         <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>167</v>
@@ -13976,7 +13976,7 @@
         <v>335</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>336</v>
@@ -13988,7 +13988,7 @@
         <v>335</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>332</v>
@@ -14002,7 +14002,7 @@
         <v>172</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>167</v>
@@ -14038,7 +14038,7 @@
         <v>335</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>336</v>
@@ -14050,7 +14050,7 @@
         <v>335</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>332</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="31" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B31" s="3">
         <v>500</v>
@@ -14098,7 +14098,7 @@
         <v>335</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>335</v>
@@ -14110,7 +14110,7 @@
         <v>335</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>336</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="32" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B32" s="5">
         <v>1500</v>
@@ -14158,7 +14158,7 @@
         <v>344</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>335</v>
@@ -14170,7 +14170,7 @@
         <v>335</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>332</v>
@@ -14181,7 +14181,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B33" s="5">
         <v>20</v>
@@ -14202,7 +14202,7 @@
         <v>161</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>337</v>
@@ -14220,7 +14220,7 @@
         <v>344</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>335</v>
@@ -14232,7 +14232,7 @@
         <v>335</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>332</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B34" s="5">
         <v>85</v>
@@ -14264,7 +14264,7 @@
         <v>161</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>337</v>
@@ -14282,7 +14282,7 @@
         <v>335</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>336</v>
@@ -14294,7 +14294,7 @@
         <v>335</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>332</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="35" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B35" s="5">
         <v>10</v>
@@ -14326,7 +14326,7 @@
         <v>161</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>337</v>
@@ -14344,7 +14344,7 @@
         <v>335</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>335</v>
@@ -14356,7 +14356,7 @@
         <v>335</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>332</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B36" s="5">
         <v>4</v>
@@ -14388,7 +14388,7 @@
         <v>161</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>337</v>
@@ -14406,7 +14406,7 @@
         <v>335</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>335</v>
@@ -14418,7 +14418,7 @@
         <v>335</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>332</v>
@@ -14468,7 +14468,7 @@
         <v>335</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>335</v>
@@ -14480,7 +14480,7 @@
         <v>335</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>332</v>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B38" s="5">
         <v>15</v>
@@ -14512,7 +14512,7 @@
         <v>161</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>335</v>
@@ -14530,7 +14530,7 @@
         <v>335</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>336</v>
@@ -14542,7 +14542,7 @@
         <v>335</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>332</v>
@@ -14553,10 +14553,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>167</v>
@@ -14592,7 +14592,7 @@
         <v>335</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>336</v>
@@ -14604,7 +14604,7 @@
         <v>335</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>332</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B40" s="5">
         <v>30</v>
@@ -14654,7 +14654,7 @@
         <v>335</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>336</v>
@@ -14666,7 +14666,7 @@
         <v>335</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>335</v>
@@ -14677,7 +14677,7 @@
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B41" s="5">
         <v>20</v>
@@ -14716,7 +14716,7 @@
         <v>335</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>335</v>
@@ -14728,7 +14728,7 @@
         <v>335</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>335</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B42" s="5">
         <v>50</v>
@@ -14778,7 +14778,7 @@
         <v>336</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>335</v>
@@ -14790,7 +14790,7 @@
         <v>335</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>335</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B43" s="5">
         <v>100</v>
@@ -14822,7 +14822,7 @@
         <v>161</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>336</v>
@@ -14840,7 +14840,7 @@
         <v>335</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>335</v>
@@ -14852,7 +14852,7 @@
         <v>335</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>335</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B44" s="3">
         <v>50</v>
@@ -14884,7 +14884,7 @@
         <v>161</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>336</v>
@@ -14902,7 +14902,7 @@
         <v>335</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>335</v>
@@ -14914,7 +14914,7 @@
         <v>335</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>335</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B45" s="5">
         <v>50</v>
@@ -14946,7 +14946,7 @@
         <v>161</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>336</v>
@@ -14964,7 +14964,7 @@
         <v>335</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>335</v>
@@ -14976,7 +14976,7 @@
         <v>335</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>335</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B46" s="5">
         <v>12</v>
@@ -15008,7 +15008,7 @@
         <v>161</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>336</v>
@@ -15026,7 +15026,7 @@
         <v>335</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>335</v>
@@ -15038,7 +15038,7 @@
         <v>335</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>335</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B47" s="5">
         <v>70</v>
@@ -15070,7 +15070,7 @@
         <v>161</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>336</v>
@@ -15088,7 +15088,7 @@
         <v>332</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>335</v>
@@ -15100,7 +15100,7 @@
         <v>335</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>335</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B48" s="5">
         <v>23</v>
@@ -15132,7 +15132,7 @@
         <v>161</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>336</v>
@@ -15150,7 +15150,7 @@
         <v>335</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>335</v>
@@ -15162,7 +15162,7 @@
         <v>335</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>335</v>
@@ -15173,10 +15173,10 @@
     </row>
     <row r="49" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>167</v>
@@ -15212,7 +15212,7 @@
         <v>336</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>335</v>
@@ -15224,7 +15224,7 @@
         <v>335</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>335</v>
@@ -15235,10 +15235,10 @@
     </row>
     <row r="50" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>167</v>
@@ -15274,7 +15274,7 @@
         <v>335</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>335</v>
@@ -15286,7 +15286,7 @@
         <v>335</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>335</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="51" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B51" s="3">
         <v>100</v>
@@ -15318,7 +15318,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>336</v>
@@ -15336,7 +15336,7 @@
         <v>336</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>335</v>
@@ -15348,7 +15348,7 @@
         <v>335</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>335</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="52" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B52" s="3">
         <v>20</v>
@@ -15398,7 +15398,7 @@
         <v>335</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>335</v>
@@ -15410,7 +15410,7 @@
         <v>335</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>335</v>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="53" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B53" s="3">
         <v>50</v>
@@ -15460,7 +15460,7 @@
         <v>335</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>336</v>
@@ -15472,7 +15472,7 @@
         <v>335</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>335</v>
@@ -15483,7 +15483,7 @@
     </row>
     <row r="54" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B54" s="2">
         <v>260</v>
@@ -15507,7 +15507,7 @@
         <v>168</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>335</v>
@@ -15522,7 +15522,7 @@
         <v>335</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>336</v>
@@ -15534,7 +15534,7 @@
         <v>335</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>335</v>
@@ -15545,7 +15545,7 @@
     </row>
     <row r="55" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -15584,7 +15584,7 @@
         <v>335</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>336</v>
@@ -15596,7 +15596,7 @@
         <v>335</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>335</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="56" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B56" s="3">
         <v>250</v>
@@ -15631,7 +15631,7 @@
         <v>168</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>335</v>
@@ -15646,7 +15646,7 @@
         <v>335</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>336</v>
@@ -15658,7 +15658,7 @@
         <v>335</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>335</v>
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15724,7 +15724,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -15735,7 +15735,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15746,7 +15746,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -15757,7 +15757,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -15768,13 +15768,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -15783,16 +15783,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15800,13 +15800,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -15815,13 +15815,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -15830,10 +15830,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>215</v>
@@ -15845,16 +15845,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15862,16 +15862,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -15879,13 +15879,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -15894,10 +15894,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>215</v>
@@ -15909,16 +15909,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -15929,7 +15929,7 @@
         <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>215</v>
@@ -15941,13 +15941,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -15956,13 +15956,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -15971,10 +15971,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>215</v>
@@ -15986,13 +15986,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -16001,10 +16001,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>215</v>
@@ -16016,10 +16016,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>172</v>
@@ -16038,13 +16038,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -16060,10 +16060,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>215</v>
@@ -16082,16 +16082,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -16106,13 +16106,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -16125,19 +16125,19 @@
     </row>
     <row r="28" spans="1:12" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -16152,10 +16152,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>172</v>
@@ -16174,13 +16174,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -16196,10 +16196,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>172</v>
@@ -16221,10 +16221,10 @@
         <v>172</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -16240,10 +16240,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>172</v>
@@ -16262,13 +16262,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -16284,13 +16284,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -16306,10 +16306,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>172</v>
@@ -16318,16 +16318,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -16336,13 +16336,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -16351,13 +16351,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -16366,7 +16366,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>172</v>
@@ -16379,13 +16379,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -16394,13 +16394,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -16409,10 +16409,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>172</v>
@@ -16427,7 +16427,7 @@
         <v>173</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>172</v>
@@ -16439,13 +16439,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -16454,10 +16454,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>172</v>
@@ -16469,13 +16469,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -16484,13 +16484,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -16499,7 +16499,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>172</v>
@@ -16514,7 +16514,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>172</v>
@@ -16523,7 +16523,7 @@
         <v>215</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -16531,10 +16531,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>172</v>
@@ -16543,16 +16543,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -16561,10 +16561,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>172</v>
@@ -16576,13 +16576,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -16594,7 +16594,7 @@
         <v>215</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>172</v>
@@ -16606,10 +16606,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>215</v>
@@ -16621,7 +16621,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>172</v>
@@ -16634,16 +16634,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -16651,13 +16651,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -16666,13 +16666,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -16681,13 +16681,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -16696,13 +16696,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -16711,13 +16711,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16728,13 +16728,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16745,16 +16745,16 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -16764,35 +16764,35 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -16802,16 +16802,16 @@
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -16821,16 +16821,16 @@
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -16840,16 +16840,16 @@
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -16859,16 +16859,16 @@
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -16878,16 +16878,16 @@
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -16895,16 +16895,16 @@
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -16912,16 +16912,16 @@
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -16929,16 +16929,16 @@
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -16946,16 +16946,16 @@
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -16963,16 +16963,16 @@
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -16980,16 +16980,16 @@
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -16997,16 +16997,16 @@
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -17014,33 +17014,33 @@
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -17053,16 +17053,16 @@
         <v>75</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -17075,16 +17075,16 @@
         <v>76</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -17097,16 +17097,16 @@
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -17115,34 +17115,34 @@
         <v>33</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -17151,16 +17151,16 @@
         <v>78</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F87" s="2"/>
     </row>
@@ -17169,16 +17169,16 @@
         <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -17186,16 +17186,16 @@
         <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -17203,16 +17203,16 @@
         <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17220,16 +17220,16 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17237,16 +17237,16 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17254,16 +17254,16 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17271,16 +17271,16 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="E94" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17288,16 +17288,16 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -17305,16 +17305,16 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -17322,16 +17322,16 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -17339,16 +17339,16 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -17356,16 +17356,16 @@
         <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -17373,10 +17373,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -17386,16 +17386,16 @@
         <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -17403,33 +17403,33 @@
         <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -17437,16 +17437,16 @@
         <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -17457,13 +17457,13 @@
         <v>172</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -17471,16 +17471,16 @@
         <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -17491,13 +17491,13 @@
         <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -17505,16 +17505,16 @@
         <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -17522,16 +17522,16 @@
         <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -17539,16 +17539,16 @@
         <v>100</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -17556,13 +17556,13 @@
         <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>215</v>
@@ -17573,16 +17573,16 @@
         <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -17591,16 +17591,16 @@
         <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -17609,16 +17609,16 @@
         <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -17627,16 +17627,16 @@
         <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -17645,13 +17645,13 @@
         <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>215</v>
@@ -17663,13 +17663,13 @@
         <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>215</v>
@@ -17684,13 +17684,13 @@
         <v>172</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -17699,16 +17699,16 @@
         <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -17717,34 +17717,34 @@
         <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -17753,13 +17753,13 @@
         <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>215</v>
@@ -17774,13 +17774,13 @@
         <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -17789,16 +17789,16 @@
         <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -17807,16 +17807,16 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -17825,16 +17825,16 @@
         <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -17843,16 +17843,16 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -17860,13 +17860,13 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>215</v>
@@ -17880,13 +17880,13 @@
         <v>172</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -17894,33 +17894,33 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -17928,16 +17928,16 @@
         <v>120</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -17945,16 +17945,16 @@
         <v>121</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -17962,16 +17962,16 @@
         <v>122</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -17979,16 +17979,16 @@
         <v>123</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -17999,13 +17999,13 @@
         <v>173</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -18013,16 +18013,16 @@
         <v>125</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -18030,16 +18030,16 @@
         <v>126</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -18050,13 +18050,13 @@
         <v>173</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18064,16 +18064,16 @@
         <v>128</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18081,16 +18081,16 @@
         <v>129</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -18098,16 +18098,16 @@
         <v>130</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18115,16 +18115,16 @@
         <v>131</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -18132,16 +18132,16 @@
         <v>132</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -18149,16 +18149,16 @@
         <v>133</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -18166,16 +18166,16 @@
         <v>134</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -18183,16 +18183,16 @@
         <v>135</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -18200,16 +18200,16 @@
         <v>136</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18217,16 +18217,16 @@
         <v>137</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -18234,16 +18234,16 @@
         <v>138</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -18251,16 +18251,16 @@
         <v>139</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18268,16 +18268,16 @@
         <v>140</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -18285,16 +18285,16 @@
         <v>141</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18302,16 +18302,16 @@
         <v>142</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -18319,16 +18319,16 @@
         <v>143</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18336,16 +18336,16 @@
         <v>144</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18353,16 +18353,16 @@
         <v>145</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -18370,16 +18370,16 @@
         <v>146</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -18387,16 +18387,16 @@
         <v>147</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18404,16 +18404,16 @@
         <v>148</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18421,16 +18421,16 @@
         <v>149</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18438,16 +18438,16 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -18455,16 +18455,16 @@
         <v>151</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -18472,16 +18472,16 @@
         <v>152</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/기업매칭사업 V4.xlsx
+++ b/기업매칭사업 V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB33D7-4715-4CD6-BFAB-96278B8CDDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807AE43-97CC-4E98-B6ED-377A22612DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,22 +2273,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매출액최대(백만원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출액최소(백만원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설립일최대(개월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설립일최소(개월)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C26~C30, J62, M72</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2374,6 +2358,22 @@
   </si>
   <si>
     <t>연구소기업여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립일최대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립일최소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액최대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액최소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12172,8 +12172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12210,16 +12210,16 @@
         <v>238</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>239</v>
@@ -12243,22 +12243,22 @@
         <v>348</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>373</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="33" x14ac:dyDescent="0.3">
@@ -12500,7 +12500,7 @@
         <v>332</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>332</v>
@@ -12562,7 +12562,7 @@
         <v>332</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>332</v>
@@ -12624,7 +12624,7 @@
         <v>332</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>332</v>
@@ -12686,7 +12686,7 @@
         <v>332</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>332</v>
@@ -12748,7 +12748,7 @@
         <v>332</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>332</v>
@@ -13182,7 +13182,7 @@
         <v>332</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>332</v>
@@ -13244,7 +13244,7 @@
         <v>332</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>332</v>
@@ -13306,7 +13306,7 @@
         <v>332</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>332</v>
@@ -13368,7 +13368,7 @@
         <v>332</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>332</v>
@@ -13430,7 +13430,7 @@
         <v>332</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>332</v>
@@ -13492,7 +13492,7 @@
         <v>332</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>332</v>
@@ -13740,7 +13740,7 @@
         <v>332</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>332</v>
@@ -13802,7 +13802,7 @@
         <v>332</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>332</v>
@@ -13864,7 +13864,7 @@
         <v>335</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>332</v>
@@ -13926,7 +13926,7 @@
         <v>336</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>332</v>
@@ -13988,7 +13988,7 @@
         <v>335</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>332</v>
@@ -14050,7 +14050,7 @@
         <v>335</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>332</v>
@@ -14110,7 +14110,7 @@
         <v>335</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>336</v>
@@ -14170,7 +14170,7 @@
         <v>335</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>332</v>
@@ -14232,7 +14232,7 @@
         <v>335</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>332</v>
@@ -14294,7 +14294,7 @@
         <v>335</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>332</v>
@@ -14418,7 +14418,7 @@
         <v>335</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>332</v>
@@ -14480,7 +14480,7 @@
         <v>335</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>332</v>
@@ -14542,7 +14542,7 @@
         <v>335</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>332</v>
@@ -14604,7 +14604,7 @@
         <v>335</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>332</v>
@@ -14666,7 +14666,7 @@
         <v>335</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>335</v>
@@ -14728,7 +14728,7 @@
         <v>335</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>335</v>
@@ -14790,7 +14790,7 @@
         <v>335</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>335</v>
@@ -14852,7 +14852,7 @@
         <v>335</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>335</v>
@@ -14976,7 +14976,7 @@
         <v>335</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>335</v>
@@ -15038,7 +15038,7 @@
         <v>335</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>335</v>
@@ -15100,7 +15100,7 @@
         <v>335</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>335</v>
@@ -15162,7 +15162,7 @@
         <v>335</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>335</v>
@@ -15224,7 +15224,7 @@
         <v>335</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>335</v>
@@ -15286,7 +15286,7 @@
         <v>335</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>335</v>
@@ -15348,7 +15348,7 @@
         <v>335</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>335</v>
@@ -15410,7 +15410,7 @@
         <v>335</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>335</v>
@@ -15472,7 +15472,7 @@
         <v>335</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>335</v>
@@ -15534,7 +15534,7 @@
         <v>335</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>335</v>
@@ -15596,7 +15596,7 @@
         <v>335</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>335</v>
@@ -15658,7 +15658,7 @@
         <v>335</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>335</v>
